--- a/TP3/mediciones placa ada/continua.xlsx
+++ b/TP3/mediciones placa ada/continua.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\informes_assd\TP3\mediciones placa ada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4402D930-B1BF-44B7-9044-BDD5C3BC78F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C26D32C-AA06-4AF1-A30A-3E306392BED5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EF58863D-C479-4151-9F3D-68FDF66EB0F6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Vin</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>mod delta</t>
+  </si>
+  <si>
+    <t>134mv</t>
+  </si>
+  <si>
+    <t>RESTA VO-VI: senoidal 50Hz 4Vpp, mido RMS de math en estadistica</t>
+  </si>
+  <si>
+    <t>70mv</t>
+  </si>
+  <si>
+    <t>19mv</t>
   </si>
 </sst>
 </file>
@@ -410,7 +425,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1038,7 @@
         <v>39.215686274509807</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>100</v>
       </c>
@@ -1035,8 +1050,11 @@
         <f t="shared" ref="D17:D22" si="4">C16*2</f>
         <v>78.431372549019613</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1000</v>
       </c>
@@ -1048,8 +1066,14 @@
         <f t="shared" si="4"/>
         <v>156.86274509803923</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>10000</v>
       </c>
@@ -1061,8 +1085,17 @@
         <f t="shared" si="4"/>
         <v>313.72549019607845</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>100000</v>
       </c>
@@ -1073,8 +1106,14 @@
         <f t="shared" si="4"/>
         <v>627.45098039215691</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1000000</v>
       </c>
@@ -1087,7 +1126,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>10000000</v>
       </c>
@@ -1100,61 +1139,61 @@
         <v>2509.8039215686276</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="1"/>
         <v>0</v>
